--- a/biology/Botanique/Beauprea/Beauprea.xlsx
+++ b/biology/Botanique/Beauprea/Beauprea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beauprea est un genre de plantes à fleurs de la famille des Proteaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Beauprea sont endémiques de Nouvelle-Calédonie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Beauprea sont endémiques de Nouvelle-Calédonie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (5 janvier 2021)[3] et The Plant List            (5 janvier 2021)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (5 janvier 2021) et The Plant List            (5 janvier 2021) :
 Beauprea asplenioides Schltr.
 Beauprea balansae Brongn. &amp; Gris
 Beauprea comptonii S.Moore
@@ -558,7 +574,7 @@
 Beauprea pancheri Brongn. &amp; Gris
 Beauprea penariensis Guillaumin
 Beauprea spathulifolia Brongn. &amp; Gris
-Selon Tropicos                                           (5 janvier 2021)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (5 janvier 2021) (Attention liste brute contenant possiblement des synonymes) :
 Beauprea asplenioides Schltr.
 Beauprea balansae Brongn. &amp; Gris
 Beauprea comptonii S. Moore
